--- a/mAjustesInventario/bak_M2710.xlsx
+++ b/mAjustesInventario/bak_M2710.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F966967-84F0-4CCE-8476-49694EE8D2B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB6A410C-2F49-4F43-9944-1E8A75E99312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{631EE56E-35E6-42D0-BADC-BF52AF910166}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F1A65096-6D8C-472E-BBBC-023CE24E3EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
-  <si>
-    <t>0247</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>025500003665</t>
   </si>
   <si>
     <t>0281</t>
   </si>
   <si>
+    <t>038629000576</t>
+  </si>
+  <si>
     <t>0399</t>
   </si>
   <si>
-    <t>041789002915</t>
+    <t>0408</t>
   </si>
   <si>
     <t>0485</t>
@@ -66,30 +75,18 @@
     <t>0511</t>
   </si>
   <si>
-    <t>0512</t>
-  </si>
-  <si>
-    <t>0513</t>
-  </si>
-  <si>
     <t>0515</t>
   </si>
   <si>
     <t>0518</t>
   </si>
   <si>
-    <t>0521</t>
-  </si>
-  <si>
-    <t>0522</t>
+    <t>0520</t>
   </si>
   <si>
     <t>0523</t>
   </si>
   <si>
-    <t>0524</t>
-  </si>
-  <si>
     <t>0527</t>
   </si>
   <si>
@@ -99,28 +96,25 @@
     <t>0531</t>
   </si>
   <si>
-    <t>0532</t>
+    <t>0533</t>
   </si>
   <si>
     <t>0549</t>
   </si>
   <si>
+    <t>0553</t>
+  </si>
+  <si>
     <t>0560</t>
   </si>
   <si>
     <t>0562</t>
   </si>
   <si>
-    <t>0577</t>
-  </si>
-  <si>
-    <t>058897091229</t>
-  </si>
-  <si>
-    <t>0662</t>
-  </si>
-  <si>
-    <t>0663</t>
+    <t>0667</t>
+  </si>
+  <si>
+    <t>0701</t>
   </si>
   <si>
     <t>0702</t>
@@ -129,16 +123,16 @@
     <t>0704</t>
   </si>
   <si>
-    <t>0705</t>
-  </si>
-  <si>
     <t>0708</t>
   </si>
   <si>
-    <t>0725</t>
-  </si>
-  <si>
-    <t>078917065979</t>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>0744</t>
+  </si>
+  <si>
+    <t>0917</t>
   </si>
   <si>
     <t>0979</t>
@@ -147,39 +141,90 @@
     <t>10</t>
   </si>
   <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
     <t>1011</t>
   </si>
   <si>
-    <t>1012</t>
-  </si>
-  <si>
     <t>1013</t>
   </si>
   <si>
+    <t>102424</t>
+  </si>
+  <si>
     <t>102433</t>
   </si>
   <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
     <t>112502</t>
   </si>
   <si>
     <t>112505</t>
   </si>
   <si>
+    <t>112507</t>
+  </si>
+  <si>
     <t>112509</t>
   </si>
   <si>
+    <t>112513</t>
+  </si>
+  <si>
+    <t>112515</t>
+  </si>
+  <si>
     <t>112528</t>
   </si>
   <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
+    <t>196</t>
+  </si>
+  <si>
     <t>197</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
     <t>2019</t>
   </si>
   <si>
@@ -192,34 +237,52 @@
     <t>2083</t>
   </si>
   <si>
-    <t>2127</t>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>3136</t>
-  </si>
-  <si>
     <t>316</t>
   </si>
   <si>
-    <t>3167</t>
-  </si>
-  <si>
     <t>317</t>
   </si>
   <si>
-    <t>3546000000851</t>
+    <t>319</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>522</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>507</t>
   </si>
   <si>
     <t>550</t>
@@ -228,10 +291,10 @@
     <t>551</t>
   </si>
   <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>611042000011</t>
+    <t>564</t>
+  </si>
+  <si>
+    <t>608875000363</t>
   </si>
   <si>
     <t>69</t>
@@ -240,57 +303,72 @@
     <t>7</t>
   </si>
   <si>
-    <t>7501013110425</t>
-  </si>
-  <si>
-    <t>7501019038921</t>
-  </si>
-  <si>
-    <t>7501020563375</t>
-  </si>
-  <si>
-    <t>7501021146102</t>
-  </si>
-  <si>
-    <t>7501040006388</t>
-  </si>
-  <si>
-    <t>7501045400907</t>
-  </si>
-  <si>
-    <t>7501069213835</t>
-  </si>
-  <si>
-    <t>7501079400010</t>
-  </si>
-  <si>
-    <t>7502004718378</t>
-  </si>
-  <si>
-    <t>7502233114569</t>
-  </si>
-  <si>
-    <t>758104001712</t>
-  </si>
-  <si>
-    <t>7590002040003</t>
-  </si>
-  <si>
-    <t>759686263680</t>
+    <t>706460249279</t>
+  </si>
+  <si>
+    <t>7501003336125</t>
+  </si>
+  <si>
+    <t>7501008006542</t>
+  </si>
+  <si>
+    <t>7501027551818</t>
+  </si>
+  <si>
+    <t>7501030467410</t>
+  </si>
+  <si>
+    <t>7501030471356</t>
+  </si>
+  <si>
+    <t>7501040023040</t>
+  </si>
+  <si>
+    <t>7501040083884</t>
+  </si>
+  <si>
+    <t>7501041415844</t>
+  </si>
+  <si>
+    <t>7501049999360</t>
+  </si>
+  <si>
+    <t>7501147511358</t>
+  </si>
+  <si>
+    <t>7501377003050</t>
+  </si>
+  <si>
+    <t>7501495010107</t>
+  </si>
+  <si>
+    <t>7503008805385</t>
+  </si>
+  <si>
+    <t>7503024416510</t>
+  </si>
+  <si>
+    <t>7506425622375</t>
+  </si>
+  <si>
+    <t>771518</t>
+  </si>
+  <si>
+    <t>7802800727438</t>
   </si>
   <si>
     <t>815</t>
   </si>
   <si>
-    <t>820</t>
-  </si>
-  <si>
     <t>848</t>
   </si>
   <si>
     <t>849</t>
   </si>
   <si>
+    <t>8901526566075</t>
+  </si>
+  <si>
     <t>897</t>
   </si>
   <si>
@@ -303,12 +381,15 @@
     <t>903</t>
   </si>
   <si>
-    <t>907</t>
+    <t>904</t>
   </si>
   <si>
     <t>908</t>
   </si>
   <si>
+    <t>909</t>
+  </si>
+  <si>
     <t>910</t>
   </si>
   <si>
@@ -318,9 +399,15 @@
     <t>912</t>
   </si>
   <si>
+    <t>913</t>
+  </si>
+  <si>
     <t>914</t>
   </si>
   <si>
+    <t>915</t>
+  </si>
+  <si>
     <t>916</t>
   </si>
   <si>
@@ -336,6 +423,9 @@
     <t>922</t>
   </si>
   <si>
+    <t>923</t>
+  </si>
+  <si>
     <t>924</t>
   </si>
   <si>
@@ -354,6 +444,9 @@
     <t>930</t>
   </si>
   <si>
+    <t>931</t>
+  </si>
+  <si>
     <t>934</t>
   </si>
   <si>
@@ -363,36 +456,60 @@
     <t>938</t>
   </si>
   <si>
+    <t>940</t>
+  </si>
+  <si>
     <t>941</t>
   </si>
   <si>
     <t>942</t>
   </si>
   <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
     <t>945</t>
   </si>
   <si>
     <t>946</t>
   </si>
   <si>
+    <t>948</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>950</t>
   </si>
   <si>
-    <t>950003</t>
-  </si>
-  <si>
-    <t>950004</t>
+    <t>950001</t>
+  </si>
+  <si>
+    <t>950005</t>
   </si>
   <si>
     <t>950006</t>
   </si>
   <si>
+    <t>950009</t>
+  </si>
+  <si>
     <t>950010</t>
   </si>
   <si>
     <t>950011</t>
   </si>
   <si>
+    <t>950012</t>
+  </si>
+  <si>
     <t>950014</t>
   </si>
   <si>
@@ -426,9 +543,18 @@
     <t>954</t>
   </si>
   <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
     <t>960</t>
   </si>
   <si>
+    <t>963</t>
+  </si>
+  <si>
     <t>965</t>
   </si>
   <si>
@@ -438,15 +564,15 @@
     <t>967</t>
   </si>
   <si>
+    <t>968</t>
+  </si>
+  <si>
     <t>969</t>
   </si>
   <si>
     <t>970</t>
   </si>
   <si>
-    <t>974</t>
-  </si>
-  <si>
     <t>975</t>
   </si>
   <si>
@@ -465,6 +591,9 @@
     <t>980</t>
   </si>
   <si>
+    <t>980304</t>
+  </si>
+  <si>
     <t>981</t>
   </si>
   <si>
@@ -486,10 +615,10 @@
     <t>988</t>
   </si>
   <si>
-    <t>989</t>
-  </si>
-  <si>
-    <t>991</t>
+    <t>997</t>
+  </si>
+  <si>
+    <t>O16</t>
   </si>
 </sst>
 </file>
@@ -841,8 +970,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786ADFEE-EAA3-4F0B-9451-A6E552D1EFC6}">
-  <dimension ref="A1:B152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6E32DE-3F3D-45A5-AD30-DCD2EC992EC9}">
+  <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -863,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -871,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -879,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -887,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -895,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -903,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -911,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -919,7 +1048,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -927,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -935,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -943,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -967,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -975,7 +1104,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -983,7 +1112,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -991,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -999,7 +1128,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1007,7 +1136,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1015,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1023,7 +1152,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1031,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1039,7 +1168,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1047,7 +1176,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1055,7 +1184,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1063,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1071,7 +1200,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1079,7 +1208,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1087,7 +1216,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1095,7 +1224,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1103,7 +1232,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1111,7 +1240,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1119,7 +1248,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1127,7 +1256,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1135,7 +1264,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1143,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>291</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1151,7 +1280,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1159,7 +1288,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1175,7 +1304,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1183,7 +1312,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1191,7 +1320,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1199,7 +1328,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1207,7 +1336,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1215,7 +1344,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1223,7 +1352,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1231,7 +1360,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1239,7 +1368,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1247,7 +1376,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1255,7 +1384,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1263,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>436</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1271,7 +1400,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1279,7 +1408,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1295,7 +1424,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1303,7 +1432,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1319,7 +1448,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1327,7 +1456,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1343,7 +1472,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1351,7 +1480,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1359,7 +1488,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1367,7 +1496,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1375,7 +1504,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1383,7 +1512,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>45</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1391,7 +1520,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1399,7 +1528,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1407,7 +1536,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1423,7 +1552,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1431,7 +1560,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1439,7 +1568,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1447,7 +1576,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1455,7 +1584,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1463,7 +1592,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1479,7 +1608,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1487,7 +1616,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1495,7 +1624,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1503,7 +1632,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1519,7 +1648,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1527,7 +1656,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1535,7 +1664,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1543,7 +1672,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1551,7 +1680,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1559,7 +1688,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1575,7 +1704,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1583,7 +1712,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1591,7 +1720,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1599,7 +1728,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1607,7 +1736,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1615,7 +1744,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1623,7 +1752,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1631,7 +1760,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1639,7 +1768,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1647,7 +1776,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1655,7 +1784,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1663,7 +1792,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1671,7 +1800,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1679,7 +1808,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1687,7 +1816,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1695,7 +1824,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1703,7 +1832,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1711,7 +1840,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1719,7 +1848,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1727,7 +1856,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1743,7 +1872,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1767,7 +1896,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1775,7 +1904,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1783,7 +1912,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1791,7 +1920,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1799,7 +1928,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1807,7 +1936,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1815,7 +1944,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1823,7 +1952,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1839,7 +1968,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1847,7 +1976,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -1855,7 +1984,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1863,7 +1992,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -1871,7 +2000,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -1879,7 +2008,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -1887,7 +2016,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>515</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -1895,7 +2024,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1903,7 +2032,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -1911,7 +2040,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -1919,7 +2048,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -1927,7 +2056,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -1935,7 +2064,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -1943,7 +2072,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -1951,7 +2080,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -1959,7 +2088,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -1967,7 +2096,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -1975,7 +2104,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -1983,7 +2112,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -1991,7 +2120,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -1999,7 +2128,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -2007,7 +2136,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2015,7 +2144,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2023,7 +2152,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -2031,7 +2160,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -2039,7 +2168,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -2047,7 +2176,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -2055,7 +2184,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2063,7 +2192,351 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
